--- a/fastqFiles/fastq_2385.xlsx
+++ b/fastqFiles/fastq_2385.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -475,7 +475,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -510,7 +510,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -545,7 +545,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -580,7 +580,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -617,7 +617,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -870,7 +870,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -905,7 +905,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
